--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/99/word_level_predictions_99.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="D75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4558,262 +4558,262 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>6</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>5</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>6</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>enable</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>6</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>6</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Follow</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" t="n">
         <v>7</v>
       </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>6</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Me</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>8</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>6</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>9</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>20</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>20</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>20</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>20</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>20</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>4</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
+      <c r="F264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>20</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>5</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>20</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>20</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>7</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" s="2" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>20</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>8</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>20</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>9</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" s="2" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>20</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" s="2" t="inlineStr">
+      <c r="F270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>20</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>11</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" t="n">
         <v>20</v>
       </c>
-      <c r="B272" s="2" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
+      <c r="D272" t="n">
         <v>12</v>
       </c>
-      <c r="E272" s="2" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" s="2" t="inlineStr">
+      <c r="F272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2" t="inlineStr">
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>20</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>13</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="F333" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G333" s="2" t="b">
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="L333" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23954,314 +23954,314 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
+      <c r="F453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/99/word_level_predictions_99.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>6</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>6</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>6</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>2</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>6</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4558,262 +4558,262 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>enable</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Follow</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Me</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>9</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>9</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>9</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>9</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>9</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>3</v>
-      </c>
-      <c r="E263" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>4</v>
-      </c>
-      <c r="E264" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>6</v>
-      </c>
-      <c r="E266" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>8</v>
-      </c>
-      <c r="E268" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>9</v>
-      </c>
-      <c r="E269" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B272" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>10</v>
-      </c>
-      <c r="E270" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
+      <c r="G272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>11</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>20</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>12</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K272" t="b">
-        <v>1</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>20</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="F333" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G333" s="2" t="b">
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="L333" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23954,314 +23954,314 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
+      <c r="F453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
